--- a/results/results_2023.xlsx
+++ b/results/results_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758563AC-8328-48C3-B7B6-05C43E9352E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A5F701-C505-4810-A3E8-BA94DEC9EACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05.09" sheetId="14" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="LD+SD" sheetId="23" r:id="rId9"/>
     <sheet name="SD+LDxpercent|10" sheetId="24" r:id="rId10"/>
     <sheet name="04.12" sheetId="26" r:id="rId11"/>
+    <sheet name="09.12" sheetId="27" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'15.09'!#REF!</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="137">
   <si>
     <t>Ant</t>
   </si>
@@ -484,6 +485,12 @@
   <si>
     <t>RxJava_git_strength_100_sd_ld.csv</t>
   </si>
+  <si>
+    <t>%LD that are SD</t>
+  </si>
+  <si>
+    <t>% dep remaining</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -796,6 +803,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,15 +827,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,6 +841,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6283,40 +6293,40 @@
     <row r="1" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41" t="s">
+      <c r="H4" s="43"/>
+      <c r="I4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
@@ -6345,7 +6355,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -6377,7 +6387,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -6407,7 +6417,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -6437,7 +6447,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -6467,7 +6477,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -6497,7 +6507,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -6527,7 +6537,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -6560,7 +6570,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -6590,7 +6600,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -6620,7 +6630,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -6650,7 +6660,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -6680,7 +6690,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -6710,7 +6720,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -6740,7 +6750,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -6770,7 +6780,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -6800,7 +6810,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -6830,7 +6840,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -6860,7 +6870,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -6890,7 +6900,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -6920,7 +6930,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
+      <c r="A25" s="38"/>
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -6950,7 +6960,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
+      <c r="A26" s="38"/>
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -6980,7 +6990,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -7012,7 +7022,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
@@ -7042,7 +7052,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -7072,7 +7082,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
@@ -7102,7 +7112,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -7132,7 +7142,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
@@ -7162,7 +7172,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -7192,7 +7202,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
@@ -7222,7 +7232,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -7252,7 +7262,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
@@ -7282,7 +7292,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
@@ -7312,7 +7322,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -7342,7 +7352,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="3" t="s">
         <v>45</v>
       </c>
@@ -7372,7 +7382,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="3" t="s">
         <v>46</v>
       </c>
@@ -7402,7 +7412,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="3" t="s">
         <v>47</v>
       </c>
@@ -7432,7 +7442,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
@@ -7462,7 +7472,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="3" t="s">
         <v>49</v>
       </c>
@@ -7492,7 +7502,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="3" t="s">
         <v>50</v>
       </c>
@@ -7522,7 +7532,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="3" t="s">
         <v>51</v>
       </c>
@@ -7552,7 +7562,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
@@ -7582,7 +7592,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="3" t="s">
         <v>53</v>
       </c>
@@ -8225,16 +8235,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A6:A26"/>
     <mergeCell ref="A27:A47"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8255,10 +8265,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="48" t="s">
         <v>2</v>
       </c>
@@ -8309,7 +8319,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -8348,7 +8358,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
@@ -8385,7 +8395,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
@@ -8422,7 +8432,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
@@ -8459,7 +8469,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
@@ -8496,7 +8506,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="29" t="s">
         <v>17</v>
       </c>
@@ -8533,7 +8543,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
@@ -8570,7 +8580,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
@@ -8607,7 +8617,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
@@ -8644,7 +8654,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
@@ -8681,7 +8691,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
@@ -8718,7 +8728,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
@@ -8755,7 +8765,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="29" t="s">
         <v>24</v>
       </c>
@@ -8792,7 +8802,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="29" t="s">
         <v>25</v>
       </c>
@@ -8829,7 +8839,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
@@ -8866,7 +8876,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
@@ -8903,7 +8913,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="29" t="s">
         <v>28</v>
       </c>
@@ -8940,7 +8950,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="29" t="s">
         <v>29</v>
       </c>
@@ -8977,7 +8987,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
       </c>
@@ -9014,7 +9024,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="29" t="s">
         <v>31</v>
       </c>
@@ -9051,7 +9061,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="33" t="s">
         <v>32</v>
       </c>
@@ -9088,7 +9098,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -9127,7 +9137,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="29" t="s">
         <v>34</v>
       </c>
@@ -9164,7 +9174,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="29" t="s">
         <v>35</v>
       </c>
@@ -9201,7 +9211,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="29" t="s">
         <v>36</v>
       </c>
@@ -9238,7 +9248,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="29" t="s">
         <v>37</v>
       </c>
@@ -9275,7 +9285,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="29" t="s">
         <v>38</v>
       </c>
@@ -9312,7 +9322,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="29" t="s">
         <v>39</v>
       </c>
@@ -9349,7 +9359,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="29" t="s">
         <v>40</v>
       </c>
@@ -9386,7 +9396,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="29" t="s">
         <v>41</v>
       </c>
@@ -9423,7 +9433,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="29" t="s">
         <v>42</v>
       </c>
@@ -9460,7 +9470,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="31" t="s">
         <v>43</v>
       </c>
@@ -9497,7 +9507,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="29" t="s">
         <v>44</v>
       </c>
@@ -9534,7 +9544,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="29" t="s">
         <v>45</v>
       </c>
@@ -9571,7 +9581,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="29" t="s">
         <v>46</v>
       </c>
@@ -9608,7 +9618,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="29" t="s">
         <v>47</v>
       </c>
@@ -9645,7 +9655,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="29" t="s">
         <v>48</v>
       </c>
@@ -9682,7 +9692,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="29" t="s">
         <v>49</v>
       </c>
@@ -9719,7 +9729,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="29" t="s">
         <v>50</v>
       </c>
@@ -9756,7 +9766,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="29" t="s">
         <v>51</v>
       </c>
@@ -9793,7 +9803,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="29" t="s">
         <v>52</v>
       </c>
@@ -9830,7 +9840,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="33" t="s">
         <v>53</v>
       </c>
@@ -10663,11 +10673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931F6E77-7D04-4B25-9535-87739314CDB3}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q68" sqref="Q68"/>
+      <selection pane="bottomRight" activeCell="Q68" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10676,10 +10686,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="48" t="s">
         <v>2</v>
       </c>
@@ -10727,7 +10737,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -10763,7 +10773,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
@@ -10797,7 +10807,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
@@ -10831,7 +10841,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
@@ -10865,7 +10875,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
@@ -10899,7 +10909,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="29" t="s">
         <v>17</v>
       </c>
@@ -10933,7 +10943,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
@@ -10967,7 +10977,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
@@ -11001,7 +11011,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
@@ -11035,7 +11045,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
@@ -11069,7 +11079,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
@@ -11103,7 +11113,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
@@ -11137,7 +11147,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="29" t="s">
         <v>24</v>
       </c>
@@ -11171,7 +11181,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="29" t="s">
         <v>25</v>
       </c>
@@ -11205,7 +11215,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
@@ -11239,7 +11249,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
@@ -11273,7 +11283,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="29" t="s">
         <v>28</v>
       </c>
@@ -11307,7 +11317,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="29" t="s">
         <v>29</v>
       </c>
@@ -11341,7 +11351,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
       </c>
@@ -11375,7 +11385,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="29" t="s">
         <v>31</v>
       </c>
@@ -11409,7 +11419,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="33" t="s">
         <v>32</v>
       </c>
@@ -11443,7 +11453,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -11479,7 +11489,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="29" t="s">
         <v>34</v>
       </c>
@@ -11513,7 +11523,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="29" t="s">
         <v>35</v>
       </c>
@@ -11547,7 +11557,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="29" t="s">
         <v>36</v>
       </c>
@@ -11581,7 +11591,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="29" t="s">
         <v>37</v>
       </c>
@@ -11615,7 +11625,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="29" t="s">
         <v>38</v>
       </c>
@@ -11649,7 +11659,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="29" t="s">
         <v>39</v>
       </c>
@@ -11683,7 +11693,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="29" t="s">
         <v>40</v>
       </c>
@@ -11717,7 +11727,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="29" t="s">
         <v>41</v>
       </c>
@@ -11751,7 +11761,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="29" t="s">
         <v>42</v>
       </c>
@@ -11785,7 +11795,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="31" t="s">
         <v>43</v>
       </c>
@@ -11819,7 +11829,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="29" t="s">
         <v>44</v>
       </c>
@@ -11853,7 +11863,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="29" t="s">
         <v>45</v>
       </c>
@@ -11887,7 +11897,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="29" t="s">
         <v>46</v>
       </c>
@@ -11921,7 +11931,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="29" t="s">
         <v>47</v>
       </c>
@@ -11955,7 +11965,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="29" t="s">
         <v>48</v>
       </c>
@@ -11989,7 +11999,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="29" t="s">
         <v>49</v>
       </c>
@@ -12023,7 +12033,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="29" t="s">
         <v>50</v>
       </c>
@@ -12057,7 +12067,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="29" t="s">
         <v>51</v>
       </c>
@@ -12091,7 +12101,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="29" t="s">
         <v>52</v>
       </c>
@@ -12125,7 +12135,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="33" t="s">
         <v>53</v>
       </c>
@@ -14311,6 +14321,3985 @@
     <mergeCell ref="A67:A87"/>
     <mergeCell ref="A88:A108"/>
     <mergeCell ref="A46:A66"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="A25:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90A2ABC-3177-4428-BA68-878743C0EEF2}">
+  <dimension ref="A1:L108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="48"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="27">
+        <v>15</v>
+      </c>
+      <c r="D4" s="27">
+        <v>517</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="I4" s="27">
+        <v>163</v>
+      </c>
+      <c r="J4" s="27">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="K4" s="27">
+        <v>0</v>
+      </c>
+      <c r="L4" s="28">
+        <f>(D4*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3">
+        <v>320</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3">
+        <v>69.45</v>
+      </c>
+      <c r="K5" s="3">
+        <v>36.15</v>
+      </c>
+      <c r="L5" s="30">
+        <f>(D5*100)/D4</f>
+        <v>61.895551257253388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3">
+        <v>215</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="I6" s="3">
+        <v>63</v>
+      </c>
+      <c r="J6" s="3">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="K6" s="3">
+        <v>39.729999999999997</v>
+      </c>
+      <c r="L6" s="30">
+        <f>(D6*100)/D4</f>
+        <v>41.586073500967117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3">
+        <v>174</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="I7" s="3">
+        <v>46</v>
+      </c>
+      <c r="J7" s="3">
+        <v>72.62</v>
+      </c>
+      <c r="K7" s="3">
+        <v>41.13</v>
+      </c>
+      <c r="L7" s="30">
+        <f>(D7*100)/D4</f>
+        <v>33.65570599613153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.441</v>
+      </c>
+      <c r="I8" s="3">
+        <v>42</v>
+      </c>
+      <c r="J8" s="3">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="K8" s="3">
+        <v>41.87</v>
+      </c>
+      <c r="L8" s="30">
+        <f>(D8*100)/D4</f>
+        <v>29.400386847195357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>138</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3">
+        <v>74.44</v>
+      </c>
+      <c r="K9" s="3">
+        <v>43.96</v>
+      </c>
+      <c r="L9" s="30">
+        <f>(D9*100)/D4</f>
+        <v>26.692456479690524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3">
+        <v>120</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.748</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="I10" s="3">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3">
+        <v>72.17</v>
+      </c>
+      <c r="K10" s="3">
+        <v>47.74</v>
+      </c>
+      <c r="L10" s="30">
+        <f>(D10*100)/D4</f>
+        <v>23.210831721470019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3">
+        <v>106</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="I11" s="3">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3">
+        <v>72.55</v>
+      </c>
+      <c r="K11" s="3">
+        <v>48.29</v>
+      </c>
+      <c r="L11" s="30">
+        <f>(D11*100)/D4</f>
+        <v>20.502901353965182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3">
+        <v>92</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="I12" s="3">
+        <v>27</v>
+      </c>
+      <c r="J12" s="3">
+        <v>70</v>
+      </c>
+      <c r="K12" s="3">
+        <v>47.85</v>
+      </c>
+      <c r="L12" s="30">
+        <f>(D12*100)/D4</f>
+        <v>17.794970986460349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="I13" s="3">
+        <v>22</v>
+      </c>
+      <c r="J13" s="3">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="K13" s="3">
+        <v>45.7</v>
+      </c>
+      <c r="L13" s="30">
+        <f>(D13*100)/D4</f>
+        <v>15.28046421663443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14">
+        <v>19</v>
+      </c>
+      <c r="D14" s="14">
+        <v>64</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.121</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I14" s="14">
+        <v>17</v>
+      </c>
+      <c r="J14" s="14">
+        <v>72.58</v>
+      </c>
+      <c r="K14" s="14">
+        <v>44.03</v>
+      </c>
+      <c r="L14" s="32">
+        <f>(D14*100)/D4</f>
+        <v>12.379110251450676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>517</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="I15" s="3">
+        <v>162</v>
+      </c>
+      <c r="J15" s="3">
+        <v>67.98</v>
+      </c>
+      <c r="K15" s="3">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="L15" s="30">
+        <f>(D15*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>517</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I16" s="3">
+        <v>190</v>
+      </c>
+      <c r="J16" s="3">
+        <v>62.45</v>
+      </c>
+      <c r="K16" s="3">
+        <v>87.2</v>
+      </c>
+      <c r="L16" s="30">
+        <f>(D16*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>517</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.193</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I17" s="3">
+        <v>191</v>
+      </c>
+      <c r="J17" s="3">
+        <v>62.25</v>
+      </c>
+      <c r="K17" s="3">
+        <v>89.77</v>
+      </c>
+      <c r="L17" s="30">
+        <f>(D17*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>517</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="I18" s="3">
+        <v>191</v>
+      </c>
+      <c r="J18" s="3">
+        <v>62.25</v>
+      </c>
+      <c r="K18" s="3">
+        <v>90.86</v>
+      </c>
+      <c r="L18" s="30">
+        <f>(D18*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>517</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.191</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I19" s="3">
+        <v>191</v>
+      </c>
+      <c r="J19" s="3">
+        <v>62.25</v>
+      </c>
+      <c r="K19" s="3">
+        <v>92.06</v>
+      </c>
+      <c r="L19" s="30">
+        <f>(D19*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3">
+        <v>517</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.186</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I20" s="3">
+        <v>191</v>
+      </c>
+      <c r="J20" s="3">
+        <v>62.25</v>
+      </c>
+      <c r="K20" s="3">
+        <v>94.29</v>
+      </c>
+      <c r="L20" s="30">
+        <f>(D20*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>517</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I21" s="3">
+        <v>191</v>
+      </c>
+      <c r="J21" s="3">
+        <v>62.25</v>
+      </c>
+      <c r="K21" s="3">
+        <v>95.19</v>
+      </c>
+      <c r="L21" s="30">
+        <f>(D21*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3">
+        <v>517</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="I22" s="3">
+        <v>191</v>
+      </c>
+      <c r="J22" s="3">
+        <v>62.25</v>
+      </c>
+      <c r="K22" s="3">
+        <v>96.11</v>
+      </c>
+      <c r="L22" s="30">
+        <f>(D22*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3">
+        <v>517</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.184</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I23" s="3">
+        <v>191</v>
+      </c>
+      <c r="J23" s="3">
+        <v>62.25</v>
+      </c>
+      <c r="K23" s="3">
+        <v>96.24</v>
+      </c>
+      <c r="L23" s="30">
+        <f>(D23*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="38"/>
+      <c r="B24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="34">
+        <v>14</v>
+      </c>
+      <c r="D24" s="34">
+        <v>517</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0.184</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I24" s="34">
+        <v>191</v>
+      </c>
+      <c r="J24" s="34">
+        <v>62.25</v>
+      </c>
+      <c r="K24" s="34">
+        <v>96.55</v>
+      </c>
+      <c r="L24" s="35">
+        <f>(D24*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="27">
+        <v>29</v>
+      </c>
+      <c r="D25" s="27">
+        <v>662</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F25" s="27">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G25" s="27">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="I25" s="27">
+        <v>222</v>
+      </c>
+      <c r="J25" s="27">
+        <v>65.63</v>
+      </c>
+      <c r="K25" s="27">
+        <v>0</v>
+      </c>
+      <c r="L25" s="28">
+        <f>(D25*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3">
+        <v>415</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="I26" s="3">
+        <v>63</v>
+      </c>
+      <c r="J26" s="3">
+        <v>84.33</v>
+      </c>
+      <c r="K26" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="L26" s="30">
+        <f>(D26*100)/D25</f>
+        <v>62.688821752265859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3">
+        <v>308</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="I27" s="3">
+        <v>75</v>
+      </c>
+      <c r="J27" s="3">
+        <v>74.83</v>
+      </c>
+      <c r="K27" s="3">
+        <v>30.95</v>
+      </c>
+      <c r="L27" s="30">
+        <f>(D27*100)/D25</f>
+        <v>46.525679758308158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="3">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3">
+        <v>250</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.193</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="I28" s="3">
+        <v>55</v>
+      </c>
+      <c r="J28" s="3">
+        <v>77.459999999999994</v>
+      </c>
+      <c r="K28" s="3">
+        <v>32.43</v>
+      </c>
+      <c r="L28" s="30">
+        <f>(D28*100)/D25</f>
+        <v>37.764350453172206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3">
+        <v>209</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I29" s="3">
+        <v>42</v>
+      </c>
+      <c r="J29" s="3">
+        <v>79.31</v>
+      </c>
+      <c r="K29" s="3">
+        <v>34.33</v>
+      </c>
+      <c r="L29" s="30">
+        <f>(D29*100)/D25</f>
+        <v>31.570996978851962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3">
+        <v>199</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.755</v>
+      </c>
+      <c r="I30" s="3">
+        <v>44</v>
+      </c>
+      <c r="J30" s="3">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="K30" s="3">
+        <v>35.04</v>
+      </c>
+      <c r="L30" s="30">
+        <f>(D30*100)/D25</f>
+        <v>30.060422960725077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3">
+        <v>178</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.627</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="I31" s="3">
+        <v>46</v>
+      </c>
+      <c r="J31" s="3">
+        <v>73.56</v>
+      </c>
+      <c r="K31" s="3">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="L31" s="30">
+        <f>(D31*100)/D25</f>
+        <v>26.888217522658611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45</v>
+      </c>
+      <c r="D32" s="3">
+        <v>165</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.621</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.876</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45</v>
+      </c>
+      <c r="J32" s="3">
+        <v>72.05</v>
+      </c>
+      <c r="K32" s="3">
+        <v>36.83</v>
+      </c>
+      <c r="L32" s="30">
+        <f>(D32*100)/D25</f>
+        <v>24.924471299093657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
+      <c r="B33" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3">
+        <v>36</v>
+      </c>
+      <c r="D33" s="3">
+        <v>127</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="I33" s="3">
+        <v>34</v>
+      </c>
+      <c r="J33" s="3">
+        <v>72.36</v>
+      </c>
+      <c r="K33" s="3">
+        <v>40.28</v>
+      </c>
+      <c r="L33" s="30">
+        <f>(D33*100)/D25</f>
+        <v>19.184290030211482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
+      <c r="B34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3">
+        <v>116</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="I34" s="3">
+        <v>30</v>
+      </c>
+      <c r="J34" s="3">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="K34" s="3">
+        <v>38.11</v>
+      </c>
+      <c r="L34" s="30">
+        <f>(D34*100)/D25</f>
+        <v>17.522658610271904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="14">
+        <v>30</v>
+      </c>
+      <c r="D35" s="14">
+        <v>110</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="I35" s="14">
+        <v>28</v>
+      </c>
+      <c r="J35" s="14">
+        <v>73.58</v>
+      </c>
+      <c r="K35" s="14">
+        <v>37.97</v>
+      </c>
+      <c r="L35" s="32">
+        <f>(D35*100)/D25</f>
+        <v>16.61631419939577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3">
+        <v>27</v>
+      </c>
+      <c r="D36" s="3">
+        <v>671</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.221</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="I36" s="3">
+        <v>217</v>
+      </c>
+      <c r="J36" s="3">
+        <v>66.87</v>
+      </c>
+      <c r="K36" s="3">
+        <v>55.86</v>
+      </c>
+      <c r="L36" s="30">
+        <f>(D36*100)/D25</f>
+        <v>101.3595166163142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="3">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3">
+        <v>667</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.159</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="I37" s="3">
+        <v>228</v>
+      </c>
+      <c r="J37" s="3">
+        <v>64.98</v>
+      </c>
+      <c r="K37" s="3">
+        <v>74.66</v>
+      </c>
+      <c r="L37" s="30">
+        <f>(D37*100)/D25</f>
+        <v>100.75528700906344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="3">
+        <v>29</v>
+      </c>
+      <c r="D38" s="3">
+        <v>663</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="I38" s="3">
+        <v>226</v>
+      </c>
+      <c r="J38" s="3">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="K38" s="3">
+        <v>80.84</v>
+      </c>
+      <c r="L38" s="30">
+        <f>(D38*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="3">
+        <v>30</v>
+      </c>
+      <c r="D39" s="3">
+        <v>663</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="I39" s="3">
+        <v>227</v>
+      </c>
+      <c r="J39" s="3">
+        <v>64.91</v>
+      </c>
+      <c r="K39" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="L39" s="30">
+        <f>(D39*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="3">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3">
+        <v>663</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="I40" s="3">
+        <v>212</v>
+      </c>
+      <c r="J40" s="3">
+        <v>67.23</v>
+      </c>
+      <c r="K40" s="3">
+        <v>85.56</v>
+      </c>
+      <c r="L40" s="30">
+        <f>(D40*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="40"/>
+      <c r="B41" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="3">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3">
+        <v>663</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I41" s="3">
+        <v>212</v>
+      </c>
+      <c r="J41" s="3">
+        <v>67.23</v>
+      </c>
+      <c r="K41" s="3">
+        <v>88.17</v>
+      </c>
+      <c r="L41" s="30">
+        <f>(D41*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="3">
+        <v>29</v>
+      </c>
+      <c r="D42" s="3">
+        <v>663</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I42" s="3">
+        <v>215</v>
+      </c>
+      <c r="J42" s="3">
+        <v>66.77</v>
+      </c>
+      <c r="K42" s="3">
+        <v>89.52</v>
+      </c>
+      <c r="L42" s="30">
+        <f>(D42*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
+      <c r="B43" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="3">
+        <v>31</v>
+      </c>
+      <c r="D43" s="3">
+        <v>662</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="I43" s="3">
+        <v>223</v>
+      </c>
+      <c r="J43" s="3">
+        <v>65.48</v>
+      </c>
+      <c r="K43" s="3">
+        <v>92.58</v>
+      </c>
+      <c r="L43" s="30">
+        <f>(D43*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3">
+        <v>30</v>
+      </c>
+      <c r="D44" s="3">
+        <v>662</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I44" s="3">
+        <v>228</v>
+      </c>
+      <c r="J44" s="3">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="K44" s="3">
+        <v>93.32</v>
+      </c>
+      <c r="L44" s="30">
+        <f>(D44*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="40"/>
+      <c r="B45" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="34">
+        <v>30</v>
+      </c>
+      <c r="D45" s="34">
+        <v>662</v>
+      </c>
+      <c r="E45" s="34">
+        <v>0.31</v>
+      </c>
+      <c r="F45" s="34">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G45" s="34">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H45" s="34">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="I45" s="34">
+        <v>228</v>
+      </c>
+      <c r="J45" s="34">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="K45" s="34">
+        <v>93.49</v>
+      </c>
+      <c r="L45" s="35">
+        <f>(D45*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="27">
+        <v>30</v>
+      </c>
+      <c r="D46" s="27">
+        <v>4414</v>
+      </c>
+      <c r="E46" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="F46" s="27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G46" s="27">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H46" s="27">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I46" s="27">
+        <v>2676</v>
+      </c>
+      <c r="J46" s="27">
+        <v>38.93</v>
+      </c>
+      <c r="K46" s="27">
+        <v>0</v>
+      </c>
+      <c r="L46" s="28">
+        <f>(D46*100)/D46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="47"/>
+      <c r="B47" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="3">
+        <v>46</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1469</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="I47" s="3">
+        <v>809</v>
+      </c>
+      <c r="J47" s="3">
+        <v>44.25</v>
+      </c>
+      <c r="K47" s="3">
+        <v>14.97</v>
+      </c>
+      <c r="L47" s="30">
+        <f>(D47*100)/D46</f>
+        <v>33.280471227911192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="3">
+        <v>64</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1343</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.152</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I48" s="3">
+        <v>657</v>
+      </c>
+      <c r="J48" s="3">
+        <v>50.49</v>
+      </c>
+      <c r="K48" s="3">
+        <v>18.11</v>
+      </c>
+      <c r="L48" s="30">
+        <f>(D48*100)/D46</f>
+        <v>30.425917535115541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
+      <c r="B49" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="3">
+        <v>68</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1242</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I49" s="3">
+        <v>593</v>
+      </c>
+      <c r="J49" s="3">
+        <v>51.67</v>
+      </c>
+      <c r="K49" s="3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L49" s="30">
+        <f>(D49*100)/D46</f>
+        <v>28.137743543271409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="47"/>
+      <c r="B50" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="3">
+        <v>87</v>
+      </c>
+      <c r="D50" s="3">
+        <v>933</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I50" s="3">
+        <v>442</v>
+      </c>
+      <c r="J50" s="3">
+        <v>51.96</v>
+      </c>
+      <c r="K50" s="3">
+        <v>22.96</v>
+      </c>
+      <c r="L50" s="30">
+        <f>(D50*100)/D46</f>
+        <v>21.137290439510647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="3">
+        <v>90</v>
+      </c>
+      <c r="D51" s="3">
+        <v>917</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I51" s="3">
+        <v>437</v>
+      </c>
+      <c r="J51" s="3">
+        <v>51.71</v>
+      </c>
+      <c r="K51" s="3">
+        <v>24.16</v>
+      </c>
+      <c r="L51" s="30">
+        <f>(D51*100)/D46</f>
+        <v>20.774807430901678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="47"/>
+      <c r="B52" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="3">
+        <v>89</v>
+      </c>
+      <c r="D52" s="3">
+        <v>866</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.497</v>
+      </c>
+      <c r="I52" s="3">
+        <v>416</v>
+      </c>
+      <c r="J52" s="3">
+        <v>51.4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>24.32</v>
+      </c>
+      <c r="L52" s="30">
+        <f>(D52*100)/D46</f>
+        <v>19.619392840960579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="47"/>
+      <c r="B53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="3">
+        <v>93</v>
+      </c>
+      <c r="D53" s="3">
+        <v>474</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.187</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I53" s="3">
+        <v>176</v>
+      </c>
+      <c r="J53" s="3">
+        <v>62.23</v>
+      </c>
+      <c r="K53" s="3">
+        <v>32.42</v>
+      </c>
+      <c r="L53" s="30">
+        <f>(D53*100)/D46</f>
+        <v>10.738559130040779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="47"/>
+      <c r="B54" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="3">
+        <v>96</v>
+      </c>
+      <c r="D54" s="3">
+        <v>465</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.187</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I54" s="3">
+        <v>170</v>
+      </c>
+      <c r="J54" s="3">
+        <v>62.8</v>
+      </c>
+      <c r="K54" s="3">
+        <v>35.22</v>
+      </c>
+      <c r="L54" s="30">
+        <f>(D54*100)/D46</f>
+        <v>10.534662437698232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="47"/>
+      <c r="B55" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="3">
+        <v>97</v>
+      </c>
+      <c r="D55" s="3">
+        <v>447</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I55" s="3">
+        <v>165</v>
+      </c>
+      <c r="J55" s="3">
+        <v>62.41</v>
+      </c>
+      <c r="K55" s="3">
+        <v>35</v>
+      </c>
+      <c r="L55" s="30">
+        <f>(D55*100)/D46</f>
+        <v>10.12686905301314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="47"/>
+      <c r="B56" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="14">
+        <v>86</v>
+      </c>
+      <c r="D56" s="14">
+        <v>370</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G56" s="14">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H56" s="14">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I56" s="14">
+        <v>141</v>
+      </c>
+      <c r="J56" s="14">
+        <v>61.05</v>
+      </c>
+      <c r="K56" s="14">
+        <v>36.61</v>
+      </c>
+      <c r="L56" s="32">
+        <f>(D56*100)/D46</f>
+        <v>8.3824195740824656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="3">
+        <v>29</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4432</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F57" s="3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2645</v>
+      </c>
+      <c r="J57" s="3">
+        <v>39.89</v>
+      </c>
+      <c r="K57" s="3">
+        <v>68.67</v>
+      </c>
+      <c r="L57" s="30">
+        <f>(D57*100)/D46</f>
+        <v>100.40779338468509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="47"/>
+      <c r="B58" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="3">
+        <v>28</v>
+      </c>
+      <c r="D58" s="3">
+        <v>4431</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F58" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2649</v>
+      </c>
+      <c r="J58" s="3">
+        <v>39.78</v>
+      </c>
+      <c r="K58" s="3">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="L58" s="30">
+        <f>(D58*100)/D46</f>
+        <v>100.38513819664703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="47"/>
+      <c r="B59" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="3">
+        <v>33</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4431</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.218</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2624</v>
+      </c>
+      <c r="J59" s="3">
+        <v>40.35</v>
+      </c>
+      <c r="K59" s="3">
+        <v>80.36</v>
+      </c>
+      <c r="L59" s="30">
+        <f>(D59*100)/D46</f>
+        <v>100.38513819664703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="47"/>
+      <c r="B60" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="3">
+        <v>32</v>
+      </c>
+      <c r="D60" s="3">
+        <v>4429</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2635</v>
+      </c>
+      <c r="J60" s="3">
+        <v>40.07</v>
+      </c>
+      <c r="K60" s="3">
+        <v>88.49</v>
+      </c>
+      <c r="L60" s="30">
+        <f>(D60*100)/D46</f>
+        <v>100.33982782057092</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="47"/>
+      <c r="B61" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="3">
+        <v>32</v>
+      </c>
+      <c r="D61" s="3">
+        <v>4429</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.187</v>
+      </c>
+      <c r="F61" s="3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2618</v>
+      </c>
+      <c r="J61" s="3">
+        <v>40.46</v>
+      </c>
+      <c r="K61" s="3">
+        <v>89.61</v>
+      </c>
+      <c r="L61" s="30">
+        <f>(D61*100)/D46</f>
+        <v>100.33982782057092</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="47"/>
+      <c r="B62" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="3">
+        <v>32</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4429</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2617</v>
+      </c>
+      <c r="J62" s="3">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="K62" s="3">
+        <v>90.52</v>
+      </c>
+      <c r="L62" s="30">
+        <f>(D62*100)/D46</f>
+        <v>100.33982782057092</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="47"/>
+      <c r="B63" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="3">
+        <v>31</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4425</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F63" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2651</v>
+      </c>
+      <c r="J63" s="3">
+        <v>39.65</v>
+      </c>
+      <c r="K63" s="3">
+        <v>96.51</v>
+      </c>
+      <c r="L63" s="30">
+        <f>(D63*100)/D46</f>
+        <v>100.24920706841867</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="47"/>
+      <c r="B64" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="3">
+        <v>31</v>
+      </c>
+      <c r="D64" s="3">
+        <v>4425</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F64" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2654</v>
+      </c>
+      <c r="J64" s="3">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="K64" s="3">
+        <v>97.05</v>
+      </c>
+      <c r="L64" s="30">
+        <f>(D64*100)/D46</f>
+        <v>100.24920706841867</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="47"/>
+      <c r="B65" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="3">
+        <v>31</v>
+      </c>
+      <c r="D65" s="3">
+        <v>4425</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F65" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I65" s="3">
+        <v>2654</v>
+      </c>
+      <c r="J65" s="3">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="K65" s="3">
+        <v>97.17</v>
+      </c>
+      <c r="L65" s="30">
+        <f>(D65*100)/D46</f>
+        <v>100.24920706841867</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="47"/>
+      <c r="B66" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="34">
+        <v>31</v>
+      </c>
+      <c r="D66" s="34">
+        <v>4424</v>
+      </c>
+      <c r="E66" s="34">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F66" s="34">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G66" s="34">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H66" s="34">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I66" s="34">
+        <v>2652</v>
+      </c>
+      <c r="J66" s="34">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="K66" s="34">
+        <v>97.74</v>
+      </c>
+      <c r="L66" s="35">
+        <f>(D66*100)/D46</f>
+        <v>100.22655188038061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="27">
+        <v>10</v>
+      </c>
+      <c r="D67" s="27">
+        <v>210</v>
+      </c>
+      <c r="E67" s="27">
+        <v>0.247</v>
+      </c>
+      <c r="F67" s="27">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G67" s="27">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H67" s="27">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I67" s="27">
+        <v>70</v>
+      </c>
+      <c r="J67" s="27">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="K67" s="27">
+        <v>0</v>
+      </c>
+      <c r="L67" s="27">
+        <f>(D67*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="47"/>
+      <c r="B68" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="3">
+        <v>10</v>
+      </c>
+      <c r="D68" s="3">
+        <v>67</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.496</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I68" s="3">
+        <v>21</v>
+      </c>
+      <c r="J68" s="3">
+        <v>67.69</v>
+      </c>
+      <c r="K68" s="3">
+        <v>31.15</v>
+      </c>
+      <c r="L68" s="30">
+        <f>(D68*100)/D67</f>
+        <v>31.904761904761905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="47"/>
+      <c r="B69" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="3">
+        <v>11</v>
+      </c>
+      <c r="D69" s="3">
+        <v>50</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I69" s="3">
+        <v>18</v>
+      </c>
+      <c r="J69" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="K69" s="3">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="L69" s="30">
+        <f>(D69*100)/D67</f>
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="47"/>
+      <c r="B70" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="3">
+        <v>12</v>
+      </c>
+      <c r="D70" s="3">
+        <v>41</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.154</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="I70" s="3">
+        <v>14</v>
+      </c>
+      <c r="J70" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="K70" s="3">
+        <v>56.06</v>
+      </c>
+      <c r="L70" s="30">
+        <f>(D70*100)/D67</f>
+        <v>19.523809523809526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="47"/>
+      <c r="B71" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="3">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3">
+        <v>31</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.308</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="I71" s="3">
+        <v>8</v>
+      </c>
+      <c r="J71" s="3">
+        <v>72.41</v>
+      </c>
+      <c r="K71" s="3">
+        <v>56.14</v>
+      </c>
+      <c r="L71" s="30">
+        <f>(D71*100)/D67</f>
+        <v>14.761904761904763</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="47"/>
+      <c r="B72" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="3">
+        <v>8</v>
+      </c>
+      <c r="D72" s="3">
+        <v>31</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="I72" s="3">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
+        <v>72.41</v>
+      </c>
+      <c r="K72" s="3">
+        <v>55.36</v>
+      </c>
+      <c r="L72" s="30">
+        <f>(D72*100)/D67</f>
+        <v>14.761904761904763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="47"/>
+      <c r="B73" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="3">
+        <v>8</v>
+      </c>
+      <c r="D73" s="3">
+        <v>28</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.191</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I73" s="3">
+        <v>8</v>
+      </c>
+      <c r="J73" s="3">
+        <v>69.23</v>
+      </c>
+      <c r="K73" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="L73" s="30">
+        <f>(D73*100)/D67</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="47"/>
+      <c r="B74" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="3">
+        <v>7</v>
+      </c>
+      <c r="D74" s="3">
+        <v>26</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.245</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="I74" s="3">
+        <v>7</v>
+      </c>
+      <c r="J74" s="3">
+        <v>70.83</v>
+      </c>
+      <c r="K74" s="3">
+        <v>63.16</v>
+      </c>
+      <c r="L74" s="30">
+        <f>(D74*100)/D67</f>
+        <v>12.380952380952381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="47"/>
+      <c r="B75" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="3">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3">
+        <v>18</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>4</v>
+      </c>
+      <c r="J75" s="3">
+        <v>76.47</v>
+      </c>
+      <c r="K75" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="L75" s="30">
+        <f>(D75*100)/D67</f>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="47"/>
+      <c r="B76" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>18</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3">
+        <v>76.47</v>
+      </c>
+      <c r="K76" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="L76" s="30">
+        <f>(D76*100)/D67</f>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="47"/>
+      <c r="B77" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="14">
+        <v>5</v>
+      </c>
+      <c r="D77" s="14">
+        <v>18</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="G77" s="14">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H77" s="14">
+        <v>0</v>
+      </c>
+      <c r="I77" s="14">
+        <v>4</v>
+      </c>
+      <c r="J77" s="14">
+        <v>76.47</v>
+      </c>
+      <c r="K77" s="14">
+        <v>61.54</v>
+      </c>
+      <c r="L77" s="32">
+        <f>(D77*100)/D67</f>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="47"/>
+      <c r="B78" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="3">
+        <v>10</v>
+      </c>
+      <c r="D78" s="3">
+        <v>211</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.316</v>
+      </c>
+      <c r="F78" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H78" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I78" s="3">
+        <v>69</v>
+      </c>
+      <c r="J78" s="3">
+        <v>66.83</v>
+      </c>
+      <c r="K78" s="3">
+        <v>81.99</v>
+      </c>
+      <c r="L78" s="30">
+        <f>(D78*100)/D67</f>
+        <v>100.47619047619048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="47"/>
+      <c r="B79" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="3">
+        <v>9</v>
+      </c>
+      <c r="D79" s="3">
+        <v>210</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F79" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I79" s="3">
+        <v>72</v>
+      </c>
+      <c r="J79" s="3">
+        <v>65.22</v>
+      </c>
+      <c r="K79" s="3">
+        <v>89.89</v>
+      </c>
+      <c r="L79" s="30">
+        <f>(D79*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="47"/>
+      <c r="B80" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="3">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3">
+        <v>210</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H80" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I80" s="3">
+        <v>72</v>
+      </c>
+      <c r="J80" s="3">
+        <v>65.22</v>
+      </c>
+      <c r="K80" s="3">
+        <v>96.35</v>
+      </c>
+      <c r="L80" s="30">
+        <f>(D80*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="47"/>
+      <c r="B81" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="3">
+        <v>9</v>
+      </c>
+      <c r="D81" s="3">
+        <v>210</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H81" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I81" s="3">
+        <v>72</v>
+      </c>
+      <c r="J81" s="3">
+        <v>65.22</v>
+      </c>
+      <c r="K81" s="3">
+        <v>96.84</v>
+      </c>
+      <c r="L81" s="30">
+        <f>(D81*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="47"/>
+      <c r="B82" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="3">
+        <v>9</v>
+      </c>
+      <c r="D82" s="3">
+        <v>210</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="H82" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I82" s="3">
+        <v>72</v>
+      </c>
+      <c r="J82" s="3">
+        <v>65.22</v>
+      </c>
+      <c r="K82" s="3">
+        <v>96.84</v>
+      </c>
+      <c r="L82" s="30">
+        <f>(D82*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="47"/>
+      <c r="B83" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="3">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3">
+        <v>210</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F83" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H83" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I83" s="3">
+        <v>72</v>
+      </c>
+      <c r="J83" s="3">
+        <v>65.22</v>
+      </c>
+      <c r="K83" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="L83" s="30">
+        <f>(D83*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="47"/>
+      <c r="B84" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="3">
+        <v>9</v>
+      </c>
+      <c r="D84" s="3">
+        <v>210</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F84" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H84" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I84" s="3">
+        <v>72</v>
+      </c>
+      <c r="J84" s="3">
+        <v>65.22</v>
+      </c>
+      <c r="K84" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="L84" s="30">
+        <f>(D84*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="47"/>
+      <c r="B85" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="3">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3">
+        <v>210</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F85" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="H85" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I85" s="3">
+        <v>78</v>
+      </c>
+      <c r="J85" s="3">
+        <v>62.32</v>
+      </c>
+      <c r="K85" s="3">
+        <v>98.71</v>
+      </c>
+      <c r="L85" s="30">
+        <f>(D85*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="47"/>
+      <c r="B86" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="3">
+        <v>12</v>
+      </c>
+      <c r="D86" s="3">
+        <v>210</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F86" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="H86" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I86" s="3">
+        <v>78</v>
+      </c>
+      <c r="J86" s="3">
+        <v>62.32</v>
+      </c>
+      <c r="K86" s="3">
+        <v>98.71</v>
+      </c>
+      <c r="L86" s="30">
+        <f>(D86*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="47"/>
+      <c r="B87" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="34">
+        <v>12</v>
+      </c>
+      <c r="D87" s="34">
+        <v>210</v>
+      </c>
+      <c r="E87" s="34">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F87" s="34">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G87" s="34">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="H87" s="34">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I87" s="34">
+        <v>78</v>
+      </c>
+      <c r="J87" s="34">
+        <v>62.32</v>
+      </c>
+      <c r="K87" s="34">
+        <v>98.71</v>
+      </c>
+      <c r="L87" s="35">
+        <f>(D87*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="27">
+        <v>15</v>
+      </c>
+      <c r="D88" s="27">
+        <v>1738</v>
+      </c>
+      <c r="E88" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="F88" s="27">
+        <v>0.108</v>
+      </c>
+      <c r="G88" s="27">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H88" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="I88" s="27">
+        <v>682</v>
+      </c>
+      <c r="J88" s="27">
+        <v>60.23</v>
+      </c>
+      <c r="K88" s="27">
+        <v>0</v>
+      </c>
+      <c r="L88" s="27">
+        <f>(D88*100)/D88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="47"/>
+      <c r="B89" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="3">
+        <v>26</v>
+      </c>
+      <c r="D89" s="3">
+        <v>493</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="I89" s="3">
+        <v>252</v>
+      </c>
+      <c r="J89" s="3">
+        <v>46.84</v>
+      </c>
+      <c r="K89" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="L89" s="30">
+        <f>(D89*100)/D88</f>
+        <v>28.365937859608746</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="47"/>
+      <c r="B90" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="3">
+        <v>27</v>
+      </c>
+      <c r="D90" s="3">
+        <v>493</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="I90" s="3">
+        <v>225</v>
+      </c>
+      <c r="J90" s="3">
+        <v>52.53</v>
+      </c>
+      <c r="K90" s="3">
+        <v>8.51</v>
+      </c>
+      <c r="L90" s="30">
+        <f>(D90*100)/D88</f>
+        <v>28.365937859608746</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="47"/>
+      <c r="B91" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="3">
+        <v>25</v>
+      </c>
+      <c r="D91" s="3">
+        <v>455</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I91" s="3">
+        <v>199</v>
+      </c>
+      <c r="J91" s="3">
+        <v>54.46</v>
+      </c>
+      <c r="K91" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="L91" s="30">
+        <f>(D91*100)/D88</f>
+        <v>26.179516685845801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="47"/>
+      <c r="B92" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="3">
+        <v>21</v>
+      </c>
+      <c r="D92" s="3">
+        <v>392</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.307</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="I92" s="3">
+        <v>180</v>
+      </c>
+      <c r="J92" s="3">
+        <v>51.87</v>
+      </c>
+      <c r="K92" s="3">
+        <v>10.54</v>
+      </c>
+      <c r="L92" s="30">
+        <f>(D92*100)/D88</f>
+        <v>22.554660529344073</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="47"/>
+      <c r="B93" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="3">
+        <v>19</v>
+      </c>
+      <c r="D93" s="3">
+        <v>357</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.627</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I93" s="3">
+        <v>131</v>
+      </c>
+      <c r="J93" s="3">
+        <v>61.47</v>
+      </c>
+      <c r="K93" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="L93" s="30">
+        <f>(D93*100)/D88</f>
+        <v>20.540851553509782</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="47"/>
+      <c r="B94" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="3">
+        <v>20</v>
+      </c>
+      <c r="D94" s="3">
+        <v>295</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I94" s="3">
+        <v>118</v>
+      </c>
+      <c r="J94" s="3">
+        <v>57.71</v>
+      </c>
+      <c r="K94" s="3">
+        <v>13.59</v>
+      </c>
+      <c r="L94" s="30">
+        <f>(D94*100)/D88</f>
+        <v>16.973532796317606</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="47"/>
+      <c r="B95" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="3">
+        <v>20</v>
+      </c>
+      <c r="D95" s="3">
+        <v>293</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I95" s="3">
+        <v>118</v>
+      </c>
+      <c r="J95" s="3">
+        <v>57.55</v>
+      </c>
+      <c r="K95" s="3">
+        <v>13.69</v>
+      </c>
+      <c r="L95" s="30">
+        <f>(D95*100)/D88</f>
+        <v>16.858457997698505</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="47"/>
+      <c r="B96" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="3">
+        <v>21</v>
+      </c>
+      <c r="D96" s="3">
+        <v>293</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="I96" s="3">
+        <v>114</v>
+      </c>
+      <c r="J96" s="3">
+        <v>58.99</v>
+      </c>
+      <c r="K96" s="3">
+        <v>13.53</v>
+      </c>
+      <c r="L96" s="30">
+        <f>(D96*100)/D88</f>
+        <v>16.858457997698505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="47"/>
+      <c r="B97" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="3">
+        <v>18</v>
+      </c>
+      <c r="D97" s="3">
+        <v>119</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="I97" s="3">
+        <v>36</v>
+      </c>
+      <c r="J97" s="3">
+        <v>66.97</v>
+      </c>
+      <c r="K97" s="3">
+        <v>27.32</v>
+      </c>
+      <c r="L97" s="30">
+        <f>(D97*100)/D88</f>
+        <v>6.8469505178365937</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="47"/>
+      <c r="B98" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="14">
+        <v>17</v>
+      </c>
+      <c r="D98" s="14">
+        <v>115</v>
+      </c>
+      <c r="E98" s="14">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F98" s="14">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G98" s="14">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="H98" s="14">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I98" s="14">
+        <v>35</v>
+      </c>
+      <c r="J98" s="14">
+        <v>66.67</v>
+      </c>
+      <c r="K98" s="14">
+        <v>27.27</v>
+      </c>
+      <c r="L98" s="32">
+        <f>(D98*100)/D88</f>
+        <v>6.6168009205983891</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="47"/>
+      <c r="B99" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="3">
+        <v>13</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1744</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I99" s="3">
+        <v>716</v>
+      </c>
+      <c r="J99" s="3">
+        <v>58.37</v>
+      </c>
+      <c r="K99" s="3">
+        <v>54.93</v>
+      </c>
+      <c r="L99" s="30">
+        <f>(D99*100)/D88</f>
+        <v>100.3452243958573</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="47"/>
+      <c r="B100" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="3">
+        <v>13</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1744</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I100" s="3">
+        <v>713</v>
+      </c>
+      <c r="J100" s="3">
+        <v>58.55</v>
+      </c>
+      <c r="K100" s="3">
+        <v>55.75</v>
+      </c>
+      <c r="L100" s="30">
+        <f>(D100*100)/D88</f>
+        <v>100.3452243958573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="47"/>
+      <c r="B101" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="3">
+        <v>14</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1744</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I101" s="3">
+        <v>702</v>
+      </c>
+      <c r="J101" s="3">
+        <v>59.19</v>
+      </c>
+      <c r="K101" s="3">
+        <v>61.76</v>
+      </c>
+      <c r="L101" s="30">
+        <f>(D101*100)/D88</f>
+        <v>100.3452243958573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="47"/>
+      <c r="B102" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="3">
+        <v>15</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1744</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I102" s="3">
+        <v>702</v>
+      </c>
+      <c r="J102" s="3">
+        <v>59.19</v>
+      </c>
+      <c r="K102" s="3">
+        <v>71.53</v>
+      </c>
+      <c r="L102" s="30">
+        <f>(D102*100)/D88</f>
+        <v>100.3452243958573</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="47"/>
+      <c r="B103" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="3">
+        <v>14</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1743</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H103" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I103" s="3">
+        <v>700</v>
+      </c>
+      <c r="J103" s="3">
+        <v>59.28</v>
+      </c>
+      <c r="K103" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="L103" s="30">
+        <f>(D103*100)/D88</f>
+        <v>100.28768699654776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="47"/>
+      <c r="B104" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="3">
+        <v>14</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1742</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I104" s="3">
+        <v>699</v>
+      </c>
+      <c r="J104" s="3">
+        <v>59.31</v>
+      </c>
+      <c r="K104" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="L104" s="30">
+        <f>(D104*100)/D88</f>
+        <v>100.23014959723821</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="47"/>
+      <c r="B105" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="3">
+        <v>14</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1742</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I105" s="3">
+        <v>699</v>
+      </c>
+      <c r="J105" s="3">
+        <v>59.31</v>
+      </c>
+      <c r="K105" s="3">
+        <v>79.89</v>
+      </c>
+      <c r="L105" s="30">
+        <f>(D105*100)/D88</f>
+        <v>100.23014959723821</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="47"/>
+      <c r="B106" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="3">
+        <v>14</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1742</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I106" s="3">
+        <v>699</v>
+      </c>
+      <c r="J106" s="3">
+        <v>59.31</v>
+      </c>
+      <c r="K106" s="3">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="L106" s="30">
+        <f>(D106*100)/D88</f>
+        <v>100.23014959723821</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="47"/>
+      <c r="B107" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="3">
+        <v>15</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1741</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.114</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I107" s="3">
+        <v>682</v>
+      </c>
+      <c r="J107" s="3">
+        <v>60.3</v>
+      </c>
+      <c r="K107" s="3">
+        <v>96.29</v>
+      </c>
+      <c r="L107" s="30">
+        <f>(D107*100)/D88</f>
+        <v>100.17261219792866</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="47"/>
+      <c r="B108" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="34">
+        <v>15</v>
+      </c>
+      <c r="D108" s="34">
+        <v>1741</v>
+      </c>
+      <c r="E108" s="34">
+        <v>0.122</v>
+      </c>
+      <c r="F108" s="34">
+        <v>0.114</v>
+      </c>
+      <c r="G108" s="34">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H108" s="34">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I108" s="34">
+        <v>682</v>
+      </c>
+      <c r="J108" s="34">
+        <v>60.3</v>
+      </c>
+      <c r="K108" s="34">
+        <v>96.31</v>
+      </c>
+      <c r="L108" s="35">
+        <f>(D108*100)/D88</f>
+        <v>100.17261219792866</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="A67:A87"/>
+    <mergeCell ref="A88:A108"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E2:F2"/>
@@ -14337,40 +18326,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="38"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -14526,10 +18515,10 @@
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="48" t="s">
         <v>2</v>
       </c>
@@ -14583,7 +18572,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -14618,7 +18607,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -14651,7 +18640,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -14684,7 +18673,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -14717,7 +18706,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -14750,7 +18739,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -14783,7 +18772,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -14816,7 +18805,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -14849,7 +18838,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -14882,7 +18871,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -14915,7 +18904,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -14948,7 +18937,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -14981,7 +18970,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -15014,7 +19003,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -15047,7 +19036,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -15080,7 +19069,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -15113,7 +19102,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -15146,7 +19135,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -15179,7 +19168,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
+      <c r="A25" s="38"/>
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -15212,7 +19201,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
+      <c r="A26" s="38"/>
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -15245,7 +19234,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
@@ -15278,7 +19267,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -15313,7 +19302,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
@@ -15346,7 +19335,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
@@ -15379,7 +19368,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -15412,7 +19401,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
@@ -15445,7 +19434,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
@@ -15478,7 +19467,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
@@ -15511,7 +19500,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
@@ -15544,7 +19533,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>41</v>
       </c>
@@ -15577,7 +19566,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
@@ -15610,7 +19599,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
@@ -15643,7 +19632,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -15676,7 +19665,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
@@ -15709,7 +19698,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
@@ -15742,7 +19731,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
@@ -15775,7 +19764,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
@@ -15808,7 +19797,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
@@ -15841,7 +19830,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
@@ -15874,7 +19863,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
@@ -15907,7 +19896,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
@@ -15940,7 +19929,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="14" t="s">
         <v>53</v>
       </c>
@@ -16699,10 +20688,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
@@ -16756,7 +20745,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -16791,7 +20780,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -16824,7 +20813,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -16857,7 +20846,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -16890,7 +20879,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -16923,7 +20912,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -16956,7 +20945,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -16989,7 +20978,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -17022,7 +21011,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -17055,7 +21044,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -17088,7 +21077,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -17121,7 +21110,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -17154,7 +21143,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -17187,7 +21176,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -17220,7 +21209,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -17253,7 +21242,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -17286,7 +21275,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -17319,7 +21308,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -17352,7 +21341,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -17385,7 +21374,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -17418,7 +21407,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
@@ -17451,7 +21440,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -17486,7 +21475,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
@@ -17519,7 +21508,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
@@ -17552,7 +21541,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
@@ -17585,7 +21574,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -17618,7 +21607,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -17651,7 +21640,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -17684,7 +21673,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
@@ -17717,7 +21706,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
@@ -17750,7 +21739,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
@@ -17783,7 +21772,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
@@ -17816,7 +21805,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -17849,7 +21838,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
@@ -17882,7 +21871,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
@@ -17915,7 +21904,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
@@ -17948,7 +21937,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
@@ -17981,7 +21970,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
@@ -18014,7 +22003,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
       </c>
@@ -18047,7 +22036,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="3" t="s">
         <v>51</v>
       </c>
@@ -18080,7 +22069,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
@@ -18113,7 +22102,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="14" t="s">
         <v>53</v>
       </c>
@@ -18870,10 +22859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
@@ -18927,7 +22916,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -18962,7 +22951,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -18995,7 +22984,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -19028,7 +23017,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -19061,7 +23050,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -19094,7 +23083,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -19127,7 +23116,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -19160,7 +23149,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -19193,7 +23182,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -19226,7 +23215,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -19259,7 +23248,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -19292,7 +23281,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -19325,7 +23314,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -19358,7 +23347,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -19391,7 +23380,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -19424,7 +23413,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -19457,7 +23446,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -19490,7 +23479,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -19523,7 +23512,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -19556,7 +23545,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -19590,7 +23579,7 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
@@ -19623,7 +23612,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -19658,7 +23647,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
@@ -19691,7 +23680,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
@@ -19724,7 +23713,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
@@ -19757,7 +23746,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -19790,7 +23779,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -19823,7 +23812,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -19856,7 +23845,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
@@ -19889,7 +23878,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
@@ -19922,7 +23911,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
@@ -19955,7 +23944,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
@@ -19988,7 +23977,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -20021,7 +24010,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
@@ -20054,7 +24043,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
@@ -20087,7 +24076,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
@@ -20120,7 +24109,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
@@ -20153,7 +24142,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
@@ -20186,7 +24175,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
       </c>
@@ -20219,7 +24208,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="3" t="s">
         <v>51</v>
       </c>
@@ -20252,7 +24241,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
@@ -20285,7 +24274,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="14" t="s">
         <v>53</v>
       </c>
@@ -21044,10 +25033,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="48" t="s">
         <v>2</v>
       </c>
@@ -21093,7 +25082,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -21129,7 +25118,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -21163,7 +25152,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -21197,7 +25186,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -21231,7 +25220,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -21265,7 +25254,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -21299,7 +25288,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -21333,7 +25322,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -21367,7 +25356,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -21401,7 +25390,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -21435,7 +25424,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -21469,7 +25458,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -21503,7 +25492,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -21537,7 +25526,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -21571,7 +25560,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -21605,7 +25594,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -21639,7 +25628,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -21673,7 +25662,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -21707,7 +25696,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -21741,7 +25730,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -21775,7 +25764,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -21809,7 +25798,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -21845,7 +25834,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="40"/>
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -21879,7 +25868,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="40"/>
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -21913,7 +25902,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -21947,7 +25936,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -21981,7 +25970,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -22015,7 +26004,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -22049,7 +26038,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" t="s">
         <v>40</v>
       </c>
@@ -22083,7 +26072,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" t="s">
         <v>41</v>
       </c>
@@ -22117,7 +26106,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -22151,7 +26140,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -22185,7 +26174,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -22219,7 +26208,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -22253,7 +26242,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -22287,7 +26276,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -22321,7 +26310,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -22355,7 +26344,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -22389,7 +26378,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -22423,7 +26412,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -22457,7 +26446,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -22491,7 +26480,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -23269,10 +27258,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="48" t="s">
         <v>2</v>
       </c>
@@ -23320,7 +27309,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -23356,7 +27345,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -23390,7 +27379,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -23424,7 +27413,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -23458,7 +27447,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -23492,7 +27481,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -23526,7 +27515,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -23560,7 +27549,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -23594,7 +27583,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -23628,7 +27617,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -23662,7 +27651,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
@@ -23696,7 +27685,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -23730,7 +27719,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -23764,7 +27753,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -23798,7 +27787,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -23832,7 +27821,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -23866,7 +27855,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -23900,7 +27889,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -23934,7 +27923,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -23968,7 +27957,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -24002,7 +27991,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -24036,7 +28025,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -24102,7 +28091,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="40"/>
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -24136,7 +28125,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="40"/>
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -24200,7 +28189,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -24234,7 +28223,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -24298,7 +28287,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -24332,7 +28321,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -24366,7 +28355,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" t="s">
         <v>40</v>
       </c>
@@ -24400,7 +28389,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" t="s">
         <v>41</v>
       </c>
@@ -24434,7 +28423,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -24468,7 +28457,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="14" t="s">
         <v>43</v>
       </c>
@@ -24502,7 +28491,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -24536,7 +28525,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -24570,7 +28559,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -24604,7 +28593,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -24638,7 +28627,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -24672,7 +28661,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -24706,7 +28695,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -24740,7 +28729,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -24774,7 +28763,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -24808,7 +28797,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -25589,10 +29578,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="48" t="s">
         <v>2</v>
       </c>
@@ -25643,7 +29632,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -25682,7 +29671,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
@@ -25719,7 +29708,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
@@ -25756,7 +29745,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
@@ -25793,7 +29782,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
@@ -25830,7 +29819,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="29" t="s">
         <v>17</v>
       </c>
@@ -25867,7 +29856,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
@@ -25904,7 +29893,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
@@ -25941,7 +29930,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
@@ -25978,7 +29967,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
@@ -26015,7 +30004,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
@@ -26052,7 +30041,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
@@ -26089,7 +30078,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="29" t="s">
         <v>24</v>
       </c>
@@ -26126,7 +30115,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="29" t="s">
         <v>25</v>
       </c>
@@ -26163,7 +30152,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
@@ -26200,7 +30189,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
@@ -26237,7 +30226,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="29" t="s">
         <v>28</v>
       </c>
@@ -26274,7 +30263,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="29" t="s">
         <v>29</v>
       </c>
@@ -26311,7 +30300,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
       </c>
@@ -26348,7 +30337,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="29" t="s">
         <v>31</v>
       </c>
@@ -26385,7 +30374,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="33" t="s">
         <v>32</v>
       </c>
@@ -26422,7 +30411,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -26461,7 +30450,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="29" t="s">
         <v>34</v>
       </c>
@@ -26498,7 +30487,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="29" t="s">
         <v>35</v>
       </c>
@@ -26535,7 +30524,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="29" t="s">
         <v>36</v>
       </c>
@@ -26572,7 +30561,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="29" t="s">
         <v>37</v>
       </c>
@@ -26609,7 +30598,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="29" t="s">
         <v>38</v>
       </c>
@@ -26646,7 +30635,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="29" t="s">
         <v>39</v>
       </c>
@@ -26683,7 +30672,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="29" t="s">
         <v>40</v>
       </c>
@@ -26720,7 +30709,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="29" t="s">
         <v>41</v>
       </c>
@@ -26757,7 +30746,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="29" t="s">
         <v>42</v>
       </c>
@@ -26794,7 +30783,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="31" t="s">
         <v>43</v>
       </c>
@@ -26831,7 +30820,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="29" t="s">
         <v>44</v>
       </c>
@@ -26868,7 +30857,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="29" t="s">
         <v>45</v>
       </c>
@@ -26905,7 +30894,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="29" t="s">
         <v>46</v>
       </c>
@@ -26942,7 +30931,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="29" t="s">
         <v>47</v>
       </c>
@@ -26979,7 +30968,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="29" t="s">
         <v>48</v>
       </c>
@@ -27016,7 +31005,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="29" t="s">
         <v>49</v>
       </c>
@@ -27053,7 +31042,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="29" t="s">
         <v>50</v>
       </c>
@@ -27090,7 +31079,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="29" t="s">
         <v>51</v>
       </c>
@@ -27127,7 +31116,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="29" t="s">
         <v>52</v>
       </c>
@@ -27164,7 +31153,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="33" t="s">
         <v>53</v>
       </c>
@@ -28008,10 +31997,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="48" t="s">
         <v>2</v>
       </c>
@@ -28062,7 +32051,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -28101,7 +32090,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
@@ -28138,7 +32127,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
@@ -28175,7 +32164,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
@@ -28212,7 +32201,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
@@ -28249,7 +32238,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="29" t="s">
         <v>17</v>
       </c>
@@ -28286,7 +32275,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
@@ -28323,7 +32312,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
@@ -28360,7 +32349,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
@@ -28397,7 +32386,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
@@ -28434,7 +32423,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
@@ -28471,7 +32460,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
@@ -28508,7 +32497,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="29" t="s">
         <v>24</v>
       </c>
@@ -28545,7 +32534,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="29" t="s">
         <v>25</v>
       </c>
@@ -28582,7 +32571,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
@@ -28619,7 +32608,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
@@ -28656,7 +32645,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="29" t="s">
         <v>28</v>
       </c>
@@ -28693,7 +32682,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="29" t="s">
         <v>29</v>
       </c>
@@ -28730,7 +32719,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
       </c>
@@ -28767,7 +32756,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="29" t="s">
         <v>31</v>
       </c>
@@ -28804,7 +32793,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="33" t="s">
         <v>32</v>
       </c>
@@ -28841,7 +32830,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -28880,7 +32869,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="29" t="s">
         <v>34</v>
       </c>
@@ -28917,7 +32906,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="29" t="s">
         <v>35</v>
       </c>
@@ -28954,7 +32943,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="29" t="s">
         <v>36</v>
       </c>
@@ -28991,7 +32980,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="29" t="s">
         <v>37</v>
       </c>
@@ -29028,7 +33017,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="29" t="s">
         <v>38</v>
       </c>
@@ -29065,7 +33054,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="29" t="s">
         <v>39</v>
       </c>
@@ -29102,7 +33091,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="29" t="s">
         <v>40</v>
       </c>
@@ -29139,7 +33128,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="29" t="s">
         <v>41</v>
       </c>
@@ -29176,7 +33165,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="29" t="s">
         <v>42</v>
       </c>
@@ -29213,7 +33202,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="31" t="s">
         <v>43</v>
       </c>
@@ -29250,7 +33239,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="29" t="s">
         <v>44</v>
       </c>
@@ -29287,7 +33276,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="29" t="s">
         <v>45</v>
       </c>
@@ -29324,7 +33313,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="29" t="s">
         <v>46</v>
       </c>
@@ -29361,7 +33350,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="29" t="s">
         <v>47</v>
       </c>
@@ -29398,7 +33387,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="29" t="s">
         <v>48</v>
       </c>
@@ -29435,7 +33424,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="29" t="s">
         <v>49</v>
       </c>
@@ -29472,7 +33461,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="29" t="s">
         <v>50</v>
       </c>
@@ -29509,7 +33498,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="29" t="s">
         <v>51</v>
       </c>
@@ -29546,7 +33535,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="29" t="s">
         <v>52</v>
       </c>
@@ -29583,7 +33572,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="33" t="s">
         <v>53</v>
       </c>
